--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/identity_schema.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/identity_schema.xlsx
@@ -80,10 +80,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -174,16 +173,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -206,45 +205,45 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K K1"/>
+      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -252,38 +251,38 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="44.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/identity_schema.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/identity_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -73,7 +73,13 @@
     <t xml:space="preserve">PUBLISHED</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">now()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
 </sst>
 </file>
@@ -205,7 +211,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -275,16 +281,14 @@
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
